--- a/Data/penalties_per_violation_in_the_contracts_over_control.xlsx
+++ b/Data/penalties_per_violation_in_the_contracts_over_control.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="21740" windowHeight="11120"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="21280" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="penalties" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Total Verified</t>
   </si>
@@ -61,6 +61,63 @@
   </si>
   <si>
     <t>Data source - data is taken from official annual summary reports of the State Property Fund of Ukraine for the relevant years (2003 to 2015). http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Link to the Report</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>part one - http://www.spfu.gov.ua/userfiles/pdf/zvit_20031.pdf, part 2 -http://www.spfu.gov.ua/userfiles/pdf/zvit_20032.pdf</t>
+  </si>
+  <si>
+    <t>part 2. pages 53-54</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/200512_1.pdf</t>
+  </si>
+  <si>
+    <t>pages 36-43</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/200612.pdf</t>
+  </si>
+  <si>
+    <t>pages 53-63</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2008.pdf</t>
+  </si>
+  <si>
+    <t>pages 45-51</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2009_12.pdf</t>
+  </si>
+  <si>
+    <t>pages 51-57</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/zvit_19032013_1.pdf</t>
+  </si>
+  <si>
+    <t>pages 25-33</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/Zvit%202014.pdf</t>
+  </si>
+  <si>
+    <t>pages 43-49</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/ru/documents/press-list/spf-reports/7389.html</t>
+  </si>
+  <si>
+    <t>pages 24-29</t>
   </si>
   <si>
     <t>UAH</t>
@@ -70,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +142,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,15 +169,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,7 +486,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -669,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>693000</v>
@@ -683,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>919000</v>
@@ -697,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>576000</v>
@@ -711,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>480000</v>
@@ -725,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>1000000</v>
@@ -739,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>1842000</v>
@@ -753,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>859000</v>
@@ -767,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>596000</v>
@@ -892,20 +963,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="115.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>